--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1391437.880326226</v>
+        <v>1389231.786919788</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604726</v>
+        <v>7094780.682604727</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>45.11151111492581</v>
       </c>
       <c r="G2" t="n">
-        <v>111.1482365360013</v>
+        <v>414.0301000117425</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208644</v>
+        <v>161.4125322208647</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866713</v>
+        <v>69.92680236866752</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.0198424776876</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930305</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.69244437498586</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,10 +744,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>9.838193148673515</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.6625960688247</v>
@@ -756,7 +756,7 @@
         <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154859</v>
+        <v>65.9526390315487</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.8809963801552</v>
+        <v>57.88099638015541</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.035360425222</v>
       </c>
       <c r="T3" t="n">
         <v>197.4201388450818</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15.80835110462328</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>132.6608848632709</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.068041219212</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>191.4537754616073</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>40.38087788758616</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>102.5756487563989</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>179.1565794787437</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>96.36163317610307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>30.54110646053108</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>42.67804628306413</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>147.2065940185074</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>35.04027315184869</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1822,16 +1822,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873211</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881778</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.96616404348405</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>8.002633610758096</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>88.23797643592214</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>39.77808571121562</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>131.7280115571599</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>111.9187566128686</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>110.7601806687364</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>26.35809873733245</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>99.16981644935771</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.26879610203984</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>284.2595212084975</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3284,7 +3284,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880205</v>
+        <v>6.081513486880219</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213011</v>
       </c>
       <c r="T35" t="n">
         <v>168.4225538535744</v>
       </c>
       <c r="U35" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V35" t="n">
         <v>292.2568421840892</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958915</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C37" t="n">
         <v>131.7514048125821</v>
@@ -3436,13 +3436,13 @@
         <v>109.9256317368855</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>19.54101048107664</v>
       </c>
       <c r="H37" t="n">
-        <v>80.39801460486946</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.85700412379236</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>154.2736090453961</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901234</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U37" t="n">
-        <v>250.7164219195671</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V37" t="n">
-        <v>216.6422270377822</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W37" t="n">
-        <v>251.0275820505452</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X37" t="n">
         <v>190.2142391029914</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.089237066049</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C38" t="n">
         <v>329.7774754849618</v>
@@ -3509,19 +3509,19 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E38" t="n">
-        <v>346.4349537862161</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F38" t="n">
         <v>371.3806294556657</v>
       </c>
       <c r="G38" t="n">
-        <v>375.4263093674078</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H38" t="n">
         <v>259.1123481012747</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880198</v>
+        <v>6.081513486880162</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213005</v>
       </c>
       <c r="T38" t="n">
         <v>168.4225538535744</v>
@@ -3560,16 +3560,16 @@
         <v>215.4997556728562</v>
       </c>
       <c r="V38" t="n">
-        <v>292.2568421840892</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W38" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X38" t="n">
         <v>334.2356843924233</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700079</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.3365638958915</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>109.9256317368855</v>
       </c>
       <c r="G40" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H40" t="n">
-        <v>109.259598628275</v>
+        <v>90.84899238050916</v>
       </c>
       <c r="I40" t="n">
-        <v>32.04274916435919</v>
+        <v>60.85700412379231</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400158</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S40" t="n">
         <v>154.2736090453961</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C41" t="n">
         <v>329.7774754849618</v>
@@ -3746,7 +3746,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E41" t="n">
-        <v>346.4349537862161</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F41" t="n">
         <v>371.3806294556657</v>
@@ -3758,7 +3758,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880198</v>
+        <v>6.081513486880169</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213005</v>
       </c>
       <c r="T41" t="n">
         <v>168.4225538535744</v>
@@ -3797,16 +3797,16 @@
         <v>215.4997556728562</v>
       </c>
       <c r="V41" t="n">
-        <v>292.2568421840892</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X41" t="n">
         <v>334.2356843924233</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700081</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,22 +3901,22 @@
         <v>131.7514048125821</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1200567321666</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9256317368855</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729825</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H43" t="n">
-        <v>109.259598628275</v>
+        <v>58.61957059314558</v>
       </c>
       <c r="I43" t="n">
-        <v>52.38344302552991</v>
+        <v>60.8570041237923</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400158</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T43" t="n">
         <v>184.0535329901234</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.2384253774349</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C44" t="n">
         <v>329.7774754849618</v>
@@ -3983,10 +3983,10 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E44" t="n">
-        <v>346.4349537862161</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F44" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556659</v>
       </c>
       <c r="G44" t="n">
         <v>375.4263093674077</v>
@@ -3995,7 +3995,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880205</v>
+        <v>6.081513486880169</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213005</v>
       </c>
       <c r="T44" t="n">
         <v>168.4225538535744</v>
@@ -4034,16 +4034,16 @@
         <v>215.4997556728562</v>
       </c>
       <c r="V44" t="n">
-        <v>292.2568421840892</v>
+        <v>292.2568421840891</v>
       </c>
       <c r="W44" t="n">
-        <v>313.7455524313673</v>
+        <v>313.7455524313672</v>
       </c>
       <c r="X44" t="n">
         <v>334.2356843924233</v>
       </c>
       <c r="Y44" t="n">
-        <v>350.7425223700079</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4138,7 +4138,7 @@
         <v>131.7514048125821</v>
       </c>
       <c r="D46" t="n">
-        <v>47.1446856573825</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>110.9385463605234</v>
@@ -4147,13 +4147,13 @@
         <v>109.9256317368855</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729825</v>
+        <v>23.40146858496925</v>
       </c>
       <c r="H46" t="n">
         <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379234</v>
+        <v>60.85700412379231</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T46" t="n">
         <v>184.0535329901234</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1478.611518684836</v>
+        <v>1044.042638813138</v>
       </c>
       <c r="C2" t="n">
-        <v>1478.611518684836</v>
+        <v>675.0801218727263</v>
       </c>
       <c r="D2" t="n">
-        <v>1120.345820078086</v>
+        <v>675.0801218727263</v>
       </c>
       <c r="E2" t="n">
-        <v>734.5575674798417</v>
+        <v>675.0801218727263</v>
       </c>
       <c r="F2" t="n">
-        <v>323.5716626902342</v>
+        <v>629.5129389283568</v>
       </c>
       <c r="G2" t="n">
-        <v>211.3007166942733</v>
+        <v>211.3007166942734</v>
       </c>
       <c r="H2" t="n">
-        <v>211.3007166942733</v>
+        <v>211.3007166942734</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501626</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244782</v>
+        <v>143.3613405244773</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293496</v>
+        <v>406.6417666293478</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024627</v>
+        <v>785.5410436024597</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782769</v>
+        <v>1223.746040782765</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400859</v>
+        <v>1654.409655400854</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671742</v>
+        <v>2015.885456671736</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110674</v>
+        <v>2286.722307110668</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750813</v>
+        <v>2412.887742750806</v>
       </c>
       <c r="R2" t="n">
-        <v>2342.254609045088</v>
+        <v>2342.254609045081</v>
       </c>
       <c r="S2" t="n">
-        <v>2342.254609045088</v>
+        <v>2160.416384320144</v>
       </c>
       <c r="T2" t="n">
-        <v>2122.532509153138</v>
+        <v>2160.416384320144</v>
       </c>
       <c r="U2" t="n">
-        <v>1868.750850660648</v>
+        <v>2160.416384320144</v>
       </c>
       <c r="V2" t="n">
-        <v>1868.750850660648</v>
+        <v>2160.416384320144</v>
       </c>
       <c r="W2" t="n">
-        <v>1868.750850660648</v>
+        <v>1807.64772905003</v>
       </c>
       <c r="X2" t="n">
-        <v>1868.750850660648</v>
+        <v>1434.18197078895</v>
       </c>
       <c r="Y2" t="n">
-        <v>1478.611518684836</v>
+        <v>1044.042638813138</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8055048397986</v>
+        <v>692.9710606982719</v>
       </c>
       <c r="C3" t="n">
-        <v>814.3524755586716</v>
+        <v>518.5180314171449</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4180658974203</v>
+        <v>369.5836217558937</v>
       </c>
       <c r="E3" t="n">
-        <v>506.1806108919648</v>
+        <v>359.6460529188497</v>
       </c>
       <c r="F3" t="n">
         <v>359.6460529188497</v>
@@ -4404,55 +4404,55 @@
         <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501626</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="J3" t="n">
-        <v>48.25775485501626</v>
+        <v>111.2074192719577</v>
       </c>
       <c r="K3" t="n">
-        <v>282.4696009334097</v>
+        <v>345.4192653503505</v>
       </c>
       <c r="L3" t="n">
-        <v>658.8007278096526</v>
+        <v>525.9465153519652</v>
       </c>
       <c r="M3" t="n">
-        <v>1149.940624122023</v>
+        <v>1017.086411664335</v>
       </c>
       <c r="N3" t="n">
-        <v>1669.786545444867</v>
+        <v>1536.932332987178</v>
       </c>
       <c r="O3" t="n">
-        <v>2078.928325059891</v>
+        <v>1946.074112602201</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.2976061</v>
+        <v>2257.44339364231</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750813</v>
+        <v>2412.887742750806</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841565</v>
+        <v>2354.422089841557</v>
       </c>
       <c r="S3" t="n">
-        <v>2354.422089841565</v>
+        <v>2193.780311634262</v>
       </c>
       <c r="T3" t="n">
-        <v>2155.007808179867</v>
+        <v>1994.366029972564</v>
       </c>
       <c r="U3" t="n">
-        <v>1926.829439856074</v>
+        <v>1766.187661648771</v>
       </c>
       <c r="V3" t="n">
-        <v>1691.677331624331</v>
+        <v>1531.035553417028</v>
       </c>
       <c r="W3" t="n">
-        <v>1437.43997489613</v>
+        <v>1276.798196688827</v>
       </c>
       <c r="X3" t="n">
-        <v>1229.588474690597</v>
+        <v>1068.946696483294</v>
       </c>
       <c r="Y3" t="n">
-        <v>1021.828175925643</v>
+        <v>861.18639771834</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.2586486563</v>
+        <v>233.1619692017344</v>
       </c>
       <c r="C4" t="n">
-        <v>182.2586486563</v>
+        <v>64.22578627382751</v>
       </c>
       <c r="D4" t="n">
-        <v>182.2586486563</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="E4" t="n">
-        <v>182.2586486563</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="F4" t="n">
-        <v>182.2586486563</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="G4" t="n">
-        <v>48.25775485501626</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501626</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501626</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501626</v>
+        <v>48.25775485501611</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461009</v>
+        <v>91.87143294460961</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384343</v>
+        <v>203.2083598384334</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534286</v>
+        <v>330.9866617534272</v>
       </c>
       <c r="N4" t="n">
-        <v>461.161297669285</v>
+        <v>461.1612976692832</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984522</v>
+        <v>565.3823477984499</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978475</v>
+        <v>631.0407786978449</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978475</v>
+        <v>631.0407786978449</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978475</v>
+        <v>631.0407786978449</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978475</v>
+        <v>414.8104340319741</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978475</v>
+        <v>414.8104340319741</v>
       </c>
       <c r="U4" t="n">
-        <v>631.0407786978475</v>
+        <v>414.8104340319741</v>
       </c>
       <c r="V4" t="n">
-        <v>631.0407786978475</v>
+        <v>414.8104340319741</v>
       </c>
       <c r="W4" t="n">
-        <v>631.0407786978475</v>
+        <v>414.8104340319741</v>
       </c>
       <c r="X4" t="n">
-        <v>403.0512277998301</v>
+        <v>414.8104340319741</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.2586486563</v>
+        <v>414.8104340319741</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1345.301239238533</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.301239238533</v>
+        <v>1138.977234560301</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1138.977234560301</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1138.977234560301</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>727.9913297706935</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2656.360325475206</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2656.360325475206</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2402.598540113298</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2071.535652769727</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1718.766997499613</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>1345.301239238533</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y5" t="n">
-        <v>1345.301239238533</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.7458231623355</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C7" t="n">
-        <v>517.7458231623355</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="E7" t="n">
         <v>369.8327295799424</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>517.7458231623355</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>517.7458231623355</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>517.7458231623355</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.7458231623355</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>165.2013688879383</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5027,16 +5027,16 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
@@ -5063,13 +5063,13 @@
         <v>4689.712021827577</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604875</v>
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5124,7 +5124,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>974.4454116758762</v>
+        <v>452.5901955154784</v>
       </c>
       <c r="C13" t="n">
-        <v>805.5092287479694</v>
+        <v>452.5901955154784</v>
       </c>
       <c r="D13" t="n">
-        <v>655.3925893356336</v>
+        <v>452.5901955154784</v>
       </c>
       <c r="E13" t="n">
-        <v>507.4794957532405</v>
+        <v>452.5901955154784</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5203,7 +5203,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892252</v>
@@ -5227,22 +5227,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.55611102446</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.1389409875</v>
+        <v>901.3723255570259</v>
       </c>
       <c r="X13" t="n">
-        <v>974.4454116758762</v>
+        <v>673.3827746590085</v>
       </c>
       <c r="Y13" t="n">
-        <v>974.4454116758762</v>
+        <v>452.5901955154784</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>722.4071781934688</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
         <v>1586.925993846824</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>2120.457898518749</v>
       </c>
       <c r="N14" t="n">
         <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3547.201365906986</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5440,46 +5440,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892255</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.79607059812</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518533</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952193</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1920.949250799809</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1699.182635369335</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1410.079768494979</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1410.079768494979</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>1120.662598458018</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>1120.662598458018</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>1120.662598458018</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5492,67 +5492,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>416.109192788863</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844496</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903278</v>
       </c>
       <c r="O17" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P17" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q17" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5589,7 +5589,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>432.2000540015824</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736755</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736755</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5692,31 +5692,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1475.554715057173</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1220.870226851286</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W19" t="n">
-        <v>931.4530568143258</v>
+        <v>991.0201431271173</v>
       </c>
       <c r="X19" t="n">
-        <v>703.4635059163086</v>
+        <v>763.0305922291</v>
       </c>
       <c r="Y19" t="n">
-        <v>482.6709267727784</v>
+        <v>542.2380130855698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,25 +5750,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>750.1800661608916</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1614.698881814246</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M20" t="n">
-        <v>2593.249184644075</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870722</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>481.6968904858346</v>
+        <v>260.9043113423045</v>
       </c>
       <c r="C22" t="n">
-        <v>481.6968904858346</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>331.5802510734989</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>331.5802510734989</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>184.6903035755885</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5908,10 +5908,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5941,10 +5941,10 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208125</v>
+        <v>999.1036114208127</v>
       </c>
       <c r="W22" t="n">
         <v>709.686441383852</v>
@@ -5953,7 +5953,7 @@
         <v>481.6968904858346</v>
       </c>
       <c r="Y22" t="n">
-        <v>481.6968904858346</v>
+        <v>260.9043113423045</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>298.7494956772322</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K23" t="n">
-        <v>953.4728278125317</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L23" t="n">
-        <v>1404.507041060941</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M23" t="n">
-        <v>2383.057343890769</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N23" t="n">
-        <v>3362.809616117416</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>392.5676213586405</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C25" t="n">
-        <v>392.5676213586405</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>242.4509819463048</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,7 +6160,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6181,16 +6181,16 @@
         <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>1312.415386267388</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>1022.998216230428</v>
+        <v>901.3723255570254</v>
       </c>
       <c r="X25" t="n">
-        <v>795.0086653324104</v>
+        <v>673.3827746590081</v>
       </c>
       <c r="Y25" t="n">
-        <v>574.2160861888802</v>
+        <v>452.5901955154779</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6227,49 +6227,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3851.472756726941</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4246.247123084118</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4704.725325593106</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>561.5038042865474</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C28" t="n">
-        <v>392.5676213586405</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D28" t="n">
-        <v>242.4509819463048</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1844.464495732243</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.697880301769</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1333.595013427412</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1078.910525221525</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W28" t="n">
-        <v>789.4933551845645</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X28" t="n">
-        <v>561.5038042865474</v>
+        <v>619.85598414138</v>
       </c>
       <c r="Y28" t="n">
-        <v>561.5038042865474</v>
+        <v>619.85598414138</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6467,13 +6467,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.5269503710302</v>
+        <v>557.6043516563539</v>
       </c>
       <c r="C31" t="n">
-        <v>393.5907674431233</v>
+        <v>388.668168728447</v>
       </c>
       <c r="D31" t="n">
-        <v>243.4741280307875</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6619,16 +6619,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6649,22 +6649,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501057</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1516.266624342135</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V31" t="n">
-        <v>1261.582136136248</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W31" t="n">
-        <v>972.1649660992873</v>
+        <v>1188.034946528141</v>
       </c>
       <c r="X31" t="n">
-        <v>744.17541520127</v>
+        <v>960.0453956301237</v>
       </c>
       <c r="Y31" t="n">
-        <v>744.17541520127</v>
+        <v>739.2528164865936</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>318.2383484401506</v>
       </c>
       <c r="K32" t="n">
-        <v>806.161341878638</v>
+        <v>972.9616805754501</v>
       </c>
       <c r="L32" t="n">
-        <v>1670.680157531993</v>
+        <v>1837.480496228805</v>
       </c>
       <c r="M32" t="n">
-        <v>2649.230460361821</v>
+        <v>2816.030799058633</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862919</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6795,22 +6795,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>242.4509819463048</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="C34" t="n">
         <v>242.4509819463048</v>
@@ -6856,13 +6856,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>813.8282088479815</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>813.8282088479815</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423046</v>
+        <v>593.0356297044514</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>1779.154403914098</v>
       </c>
       <c r="D35" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E35" t="n">
-        <v>1106.808364398085</v>
+        <v>1106.808364398084</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529681</v>
+        <v>731.6764154529678</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424552</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H35" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571341</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967279</v>
@@ -6941,10 +6941,10 @@
         <v>607.2838383285448</v>
       </c>
       <c r="L35" t="n">
-        <v>1471.8026539819</v>
+        <v>1065.913843378165</v>
       </c>
       <c r="M35" t="n">
-        <v>2450.352956811728</v>
+        <v>2044.464146207993</v>
       </c>
       <c r="N35" t="n">
         <v>3024.21641843464</v>
@@ -6962,22 +6962,22 @@
         <v>4229.266683983639</v>
       </c>
       <c r="S35" t="n">
-        <v>4154.829971355224</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T35" t="n">
-        <v>3984.706179583937</v>
+        <v>3984.706179583938</v>
       </c>
       <c r="U35" t="n">
         <v>3767.029658702264</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W35" t="n">
         <v>3154.906027777561</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y35" t="n">
         <v>2463.00884922965</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>636.2354894847501</v>
+        <v>636.2354894847499</v>
       </c>
       <c r="C37" t="n">
-        <v>503.1532624013339</v>
+        <v>503.1532624013337</v>
       </c>
       <c r="D37" t="n">
-        <v>388.8905788334888</v>
+        <v>388.8905788334883</v>
       </c>
       <c r="E37" t="n">
-        <v>276.8314410955863</v>
+        <v>276.8314410955861</v>
       </c>
       <c r="F37" t="n">
-        <v>165.7954494421672</v>
+        <v>165.7954494421667</v>
       </c>
       <c r="G37" t="n">
-        <v>165.7954494421672</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="H37" t="n">
-        <v>84.58533367967279</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="I37" t="n">
         <v>84.58533367967279</v>
@@ -7099,7 +7099,7 @@
         <v>403.9760733218553</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M37" t="n">
         <v>1134.973841616271</v>
@@ -7123,22 +7123,22 @@
         <v>2070.659533992781</v>
       </c>
       <c r="T37" t="n">
-        <v>1884.746874406798</v>
+        <v>1884.746874406797</v>
       </c>
       <c r="U37" t="n">
-        <v>1631.497963376932</v>
+        <v>1631.497963376931</v>
       </c>
       <c r="V37" t="n">
-        <v>1412.667431015536</v>
+        <v>1412.667431015535</v>
       </c>
       <c r="W37" t="n">
-        <v>1159.104216823066</v>
+        <v>1159.104216823065</v>
       </c>
       <c r="X37" t="n">
-        <v>966.9686217695387</v>
+        <v>966.9686217695385</v>
       </c>
       <c r="Y37" t="n">
-        <v>782.0299984704992</v>
+        <v>782.029998470499</v>
       </c>
     </row>
     <row r="38">
@@ -7163,55 +7163,55 @@
         <v>731.6764154529685</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424556</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H38" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571334</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J38" t="n">
         <v>273.4644646386982</v>
       </c>
       <c r="K38" t="n">
-        <v>928.1877967739978</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L38" t="n">
-        <v>1379.222010022407</v>
+        <v>1065.913843378164</v>
       </c>
       <c r="M38" t="n">
-        <v>1948.665039532784</v>
+        <v>2044.464146207992</v>
       </c>
       <c r="N38" t="n">
-        <v>2495.443856591567</v>
+        <v>3024.216418434639</v>
       </c>
       <c r="O38" t="n">
-        <v>2998.416327470904</v>
+        <v>3527.188889313976</v>
       </c>
       <c r="P38" t="n">
-        <v>3711.771414917849</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q38" t="n">
-        <v>4170.249617426837</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R38" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S38" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T38" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X38" t="n">
         <v>2817.294225360972</v>
@@ -7248,7 +7248,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I39" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J39" t="n">
         <v>178.2626031702901</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.2589880867695</v>
+        <v>728.0534970725189</v>
       </c>
       <c r="C40" t="n">
-        <v>582.2589880867695</v>
+        <v>594.9712699891029</v>
       </c>
       <c r="D40" t="n">
-        <v>582.2589880867695</v>
+        <v>480.708586421258</v>
       </c>
       <c r="E40" t="n">
-        <v>470.199850348867</v>
+        <v>480.708586421258</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1638586954473</v>
+        <v>369.6725947678383</v>
       </c>
       <c r="G40" t="n">
-        <v>227.3149779146569</v>
+        <v>237.823713987048</v>
       </c>
       <c r="H40" t="n">
-        <v>116.9517469770053</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I40" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218552</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
@@ -7345,7 +7345,7 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.992741488919</v>
+        <v>1845.99274148892</v>
       </c>
       <c r="P40" t="n">
         <v>2113.740704045764</v>
@@ -7360,7 +7360,7 @@
         <v>2016.6830325948</v>
       </c>
       <c r="T40" t="n">
-        <v>1830.770373008816</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U40" t="n">
         <v>1577.521461978951</v>
@@ -7372,10 +7372,10 @@
         <v>1105.127715425085</v>
       </c>
       <c r="X40" t="n">
-        <v>912.992120371558</v>
+        <v>912.9921203715583</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.0534970725186</v>
+        <v>728.0534970725189</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D41" t="n">
         <v>1456.742661151839</v>
@@ -7397,64 +7397,64 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424556</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H41" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571335</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J41" t="n">
         <v>273.4644646386982</v>
       </c>
       <c r="K41" t="n">
-        <v>928.1877967739978</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L41" t="n">
-        <v>1792.706612427352</v>
+        <v>1065.913843378164</v>
       </c>
       <c r="M41" t="n">
-        <v>2326.238517099277</v>
+        <v>2044.464146207992</v>
       </c>
       <c r="N41" t="n">
-        <v>2873.017334158059</v>
+        <v>3024.216418434639</v>
       </c>
       <c r="O41" t="n">
-        <v>3527.188889313977</v>
+        <v>3527.188889313976</v>
       </c>
       <c r="P41" t="n">
-        <v>3921.963255671155</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q41" t="n">
-        <v>4170.249617426837</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U41" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J42" t="n">
         <v>178.2626031702901</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>738.0909164154521</v>
+        <v>582.2589880867698</v>
       </c>
       <c r="C43" t="n">
-        <v>605.0086893320358</v>
+        <v>449.1767610033536</v>
       </c>
       <c r="D43" t="n">
-        <v>490.7460057641907</v>
+        <v>449.1767610033536</v>
       </c>
       <c r="E43" t="n">
-        <v>490.7460057641907</v>
+        <v>337.1176232654512</v>
       </c>
       <c r="F43" t="n">
-        <v>379.710014110771</v>
+        <v>337.1176232654512</v>
       </c>
       <c r="G43" t="n">
-        <v>247.8611333299806</v>
+        <v>205.2687424846608</v>
       </c>
       <c r="H43" t="n">
-        <v>137.497902392329</v>
+        <v>146.057055016837</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J43" t="n">
         <v>164.8484282497936</v>
@@ -7573,7 +7573,7 @@
         <v>403.9760733218553</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7594,25 +7594,25 @@
         <v>2172.514960923483</v>
       </c>
       <c r="S43" t="n">
-        <v>2172.514960923483</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T43" t="n">
-        <v>1986.602301337499</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U43" t="n">
-        <v>1733.353390307634</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V43" t="n">
-        <v>1514.522857946237</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W43" t="n">
-        <v>1260.959643753767</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X43" t="n">
-        <v>1068.824048700241</v>
+        <v>912.9921203715585</v>
       </c>
       <c r="Y43" t="n">
-        <v>883.8854254012011</v>
+        <v>728.0534970725189</v>
       </c>
     </row>
     <row r="44">
@@ -7631,64 +7631,64 @@
         <v>1456.742661151839</v>
       </c>
       <c r="E44" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.676415452969</v>
+        <v>731.6764154529683</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424561</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H44" t="n">
-        <v>90.7282765957134</v>
+        <v>90.72827659571335</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J44" t="n">
-        <v>273.4644646386982</v>
+        <v>300.5491092028267</v>
       </c>
       <c r="K44" t="n">
-        <v>607.2838383285448</v>
+        <v>634.3684828926732</v>
       </c>
       <c r="L44" t="n">
-        <v>1471.8026539819</v>
+        <v>1498.887298546028</v>
       </c>
       <c r="M44" t="n">
-        <v>2044.464146207993</v>
+        <v>2477.437601375857</v>
       </c>
       <c r="N44" t="n">
-        <v>3024.21641843464</v>
+        <v>3024.216418434639</v>
       </c>
       <c r="O44" t="n">
-        <v>3527.188889313977</v>
+        <v>3527.188889313976</v>
       </c>
       <c r="P44" t="n">
-        <v>3921.963255671155</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q44" t="n">
-        <v>4170.249617426837</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U44" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.294225360973</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y44" t="n">
         <v>2463.008849229651</v>
@@ -7722,7 +7722,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J45" t="n">
         <v>178.2626031702901</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>792.067417813434</v>
+        <v>636.2354894847513</v>
       </c>
       <c r="C46" t="n">
-        <v>658.9851907300177</v>
+        <v>503.153262401335</v>
       </c>
       <c r="D46" t="n">
-        <v>611.3642961266009</v>
+        <v>503.153262401335</v>
       </c>
       <c r="E46" t="n">
-        <v>499.3051583886985</v>
+        <v>391.0941246634324</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352788</v>
+        <v>280.0581330100127</v>
       </c>
       <c r="G46" t="n">
-        <v>256.4202859544883</v>
+        <v>256.4202859544882</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0570550168368</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K46" t="n">
         <v>403.9760733218554</v>
@@ -7822,7 +7822,7 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q46" t="n">
         <v>2226.491462321464</v>
@@ -7831,25 +7831,25 @@
         <v>2226.491462321464</v>
       </c>
       <c r="S46" t="n">
-        <v>2226.491462321464</v>
+        <v>2070.659533992782</v>
       </c>
       <c r="T46" t="n">
-        <v>2040.578802735481</v>
+        <v>1884.746874406798</v>
       </c>
       <c r="U46" t="n">
-        <v>1787.329891705615</v>
+        <v>1631.497963376933</v>
       </c>
       <c r="V46" t="n">
-        <v>1568.499359344219</v>
+        <v>1412.667431015536</v>
       </c>
       <c r="W46" t="n">
-        <v>1314.936145151749</v>
+        <v>1159.104216823066</v>
       </c>
       <c r="X46" t="n">
-        <v>1122.800550098222</v>
+        <v>966.9686217695397</v>
       </c>
       <c r="Y46" t="n">
-        <v>937.861926799183</v>
+        <v>782.0299984705002</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>62.50551572733622</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>173.0586514907041</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.88111353616887</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>29.61882225792094</v>
+        <v>29.61882225792185</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>105.1996354507095</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792226</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>133.2530576400255</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>205.0727796301213</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>14.45386895940638</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,16 +9887,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>14.45386895940618</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>34.13957882094016</v>
       </c>
       <c r="K32" t="n">
-        <v>189.7998007892643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10589,13 +10589,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>7.672516970920071</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>27.35822683245362</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10823,25 +10823,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>7.672516970919162</v>
       </c>
       <c r="M38" t="n">
-        <v>36.27386347318486</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>7.672516970919162</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>152.7263477541215</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>27.35822683245306</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>39.52483591330201</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>102.7430017398671</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>78.50306137052981</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696628</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>154.7287521795932</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>129.8658161384533</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>278.5203647258329</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>3.556976973656816</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>77.78783182310609</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>140.0538944707217</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>120.4096317666681</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>67.91322356906873</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>79.00884466270553</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>259.8537394682804</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>187.3531818872333</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>161.5631840798974</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>2.263477128093541</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729825</v>
+        <v>110.9893814919059</v>
       </c>
       <c r="H37" t="n">
-        <v>28.86158402340557</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379234</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400158</v>
+        <v>53.43673638400161</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C40" t="n">
-        <v>131.7514048125821</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321666</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>18.41060624776584</v>
       </c>
       <c r="I40" t="n">
-        <v>28.81425495943315</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>50.64002803512942</v>
       </c>
       <c r="I43" t="n">
-        <v>8.473561098262394</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>154.2736090453961</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.97537107478411</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>107.1289233880132</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400158</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S46" t="n">
-        <v>154.2736090453961</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>937585.9195853755</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>953374.7616635159</v>
+        <v>953374.7616635161</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>953374.7616635159</v>
+        <v>953374.7616635161</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="F2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643796</v>
       </c>
       <c r="G2" t="n">
         <v>476498.1442643798</v>
@@ -26332,7 +26332,7 @@
         <v>476498.1442643797</v>
       </c>
       <c r="I2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="J2" t="n">
         <v>476498.1442643799</v>
@@ -26347,13 +26347,13 @@
         <v>488683.9876009097</v>
       </c>
       <c r="N2" t="n">
+        <v>488683.9876009097</v>
+      </c>
+      <c r="O2" t="n">
         <v>488683.9876009095</v>
       </c>
-      <c r="O2" t="n">
-        <v>488683.9876009094</v>
-      </c>
       <c r="P2" t="n">
-        <v>488683.9876009097</v>
+        <v>488683.9876009096</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394268</v>
+        <v>507203.1428394247</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418045</v>
+        <v>78665.28217418239</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410734</v>
+        <v>157829.400141073</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022167</v>
+        <v>18289.94367022214</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>123848.791188175</v>
+        <v>123848.7911881751</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223242.9088455553</v>
+        <v>223242.9088455559</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,16 +26424,16 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499377</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499374</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499382</v>
@@ -26448,16 +26448,16 @@
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>53328.24410000351</v>
+        <v>53328.24410000349</v>
       </c>
       <c r="N4" t="n">
-        <v>53328.24410000351</v>
+        <v>53328.24410000354</v>
       </c>
       <c r="O4" t="n">
-        <v>53328.2441000035</v>
+        <v>53328.24410000355</v>
       </c>
       <c r="P4" t="n">
-        <v>53328.2441000035</v>
+        <v>53328.24410000353</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133433</v>
+        <v>77204.68871133418</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26503,13 +26503,13 @@
         <v>91026.0498212368</v>
       </c>
       <c r="N5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123678</v>
       </c>
       <c r="O5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123678</v>
       </c>
       <c r="P5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123678</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-315025.6784777466</v>
+        <v>-315025.678477745</v>
       </c>
       <c r="C6" t="n">
-        <v>130036.1957532484</v>
+        <v>130036.1957532465</v>
       </c>
       <c r="D6" t="n">
-        <v>208701.4779274288</v>
+        <v>208701.4779274289</v>
       </c>
       <c r="E6" t="n">
-        <v>-372353.5116577343</v>
+        <v>-372420.7071479604</v>
       </c>
       <c r="F6" t="n">
-        <v>355023.9023356723</v>
+        <v>354956.7068454463</v>
       </c>
       <c r="G6" t="n">
-        <v>355023.9023356724</v>
+        <v>354956.7068454466</v>
       </c>
       <c r="H6" t="n">
-        <v>355023.9023356722</v>
+        <v>354956.7068454464</v>
       </c>
       <c r="I6" t="n">
-        <v>355023.9023356722</v>
+        <v>354956.7068454465</v>
       </c>
       <c r="J6" t="n">
-        <v>197194.502194599</v>
+        <v>197127.3067043736</v>
       </c>
       <c r="K6" t="n">
-        <v>336733.9586654506</v>
+        <v>336666.7631752244</v>
       </c>
       <c r="L6" t="n">
-        <v>355023.9023356723</v>
+        <v>354956.7068454465</v>
       </c>
       <c r="M6" t="n">
-        <v>220480.9024914944</v>
+        <v>220464.4813485041</v>
       </c>
       <c r="N6" t="n">
-        <v>344329.6936796692</v>
+        <v>344313.2725366791</v>
       </c>
       <c r="O6" t="n">
-        <v>344329.6936796691</v>
+        <v>344313.2725366789</v>
       </c>
       <c r="P6" t="n">
-        <v>344329.6936796694</v>
+        <v>344313.2725366791</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688979</v>
+        <v>316.5685789688964</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877032</v>
+        <v>603.2219356877014</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688979</v>
+        <v>316.5685789688964</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818879</v>
+        <v>61.17508524819027</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877032</v>
+        <v>603.2219356877014</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685241</v>
+        <v>71.06533706685423</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877032</v>
+        <v>603.2219356877014</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685241</v>
+        <v>71.06533706685423</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.0293982413542</v>
+        <v>383.0293982413544</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877032</v>
+        <v>603.2219356877014</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685241</v>
+        <v>71.06533706685423</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>361.7645346267856</v>
       </c>
       <c r="G2" t="n">
-        <v>302.8818634757412</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>326.4414032841482</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776875</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5248788930305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>133.8407392748815</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,10 +27464,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>147.8068873067274</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.035360425222</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>132.8071219135891</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>34.75923312327672</v>
+        <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
         <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
-        <v>138.28311657924</v>
+        <v>138.2831165792401</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255608</v>
+        <v>52.99928112255628</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.3601878273908</v>
+        <v>38.36018782739104</v>
       </c>
       <c r="R4" t="n">
-        <v>151.625388236511</v>
+        <v>151.6253882365111</v>
       </c>
       <c r="S4" t="n">
-        <v>214.068041219212</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.5064544755703</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>222.3303945591877</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>134.0348349213853</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>43.85831389017027</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>72.98106384508429</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>55.56968306875818</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>136.7057146380968</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>3.732907316589262e-12</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.275096291835646e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.477540827127755e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604567</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604584</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.4954162860455</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604575</v>
+        <v>35.49541628604579</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392553</v>
+        <v>1.272637503392547</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161899</v>
+        <v>13.03339883161893</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954146</v>
+        <v>49.06335734954123</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035638</v>
+        <v>108.0135173035633</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221707</v>
+        <v>161.8842628221699</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166205</v>
+        <v>200.8317428166196</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175779</v>
+        <v>223.4640100175768</v>
       </c>
       <c r="N2" t="n">
-        <v>227.079891324092</v>
+        <v>227.0798913240909</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497323</v>
+        <v>214.4251021497312</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847286</v>
+        <v>183.0068637847277</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944827</v>
+        <v>137.430533194482</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248256</v>
+        <v>79.94231557248216</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855784</v>
+        <v>29.0002271085577</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100905</v>
+        <v>5.570970671100878</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714042</v>
+        <v>0.1018110002714038</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859314</v>
+        <v>0.6809210943859281</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674654</v>
+        <v>6.576264253674622</v>
       </c>
       <c r="I3" t="n">
-        <v>23.4439938198665</v>
+        <v>23.44399381986639</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933048</v>
+        <v>64.33211093933016</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631879</v>
+        <v>109.9538242631873</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665594</v>
+        <v>147.8464858665587</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380493</v>
+        <v>172.5298755380485</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648743</v>
+        <v>177.0962279648735</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313755</v>
+        <v>162.0084500313747</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674328</v>
+        <v>130.0260640674322</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915854</v>
+        <v>86.91898039915812</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248793</v>
+        <v>42.27683777248772</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861587</v>
+        <v>12.6478106786158</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739784</v>
+        <v>2.74458984973977</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012708</v>
+        <v>0.04479744042012686</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111273</v>
+        <v>0.5708613719111245</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173481</v>
+        <v>5.075476561173456</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801827</v>
+        <v>17.16735834801819</v>
       </c>
       <c r="J4" t="n">
-        <v>40.3598989941167</v>
+        <v>40.3598989941165</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840187</v>
+        <v>66.32371211840155</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667797</v>
+        <v>84.87151705667756</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148697</v>
+        <v>89.48511487148653</v>
       </c>
       <c r="N4" t="n">
-        <v>87.3573588489092</v>
+        <v>87.35735884890877</v>
       </c>
       <c r="O4" t="n">
-        <v>80.6886600952201</v>
+        <v>80.6886600952197</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823304</v>
+        <v>69.04308810823271</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430358</v>
+        <v>47.80185542430335</v>
       </c>
       <c r="R4" t="n">
-        <v>25.6680031406585</v>
+        <v>25.66800314065837</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760279</v>
+        <v>9.948556817760231</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711179</v>
+        <v>2.439134952711168</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333425</v>
+        <v>0.0311378930133341</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -33041,10 +33041,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895131</v>
+        <v>96.06422794895079</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483548</v>
+        <v>265.939824348354</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970837</v>
+        <v>382.7265423970828</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831376</v>
+        <v>442.6313102831365</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394852</v>
+        <v>435.0137521394841</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907909</v>
+        <v>365.1270719907898</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009416</v>
+        <v>273.5725762009408</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799379</v>
+        <v>127.4398339799372</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>63.58551961307231</v>
       </c>
       <c r="K3" t="n">
-        <v>236.5776223014075</v>
+        <v>236.577622301407</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901444</v>
+        <v>182.3507575773885</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660309</v>
+        <v>496.1009053660301</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250945</v>
+        <v>525.0968902250937</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636606</v>
+        <v>413.2745248636598</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930397</v>
+        <v>314.5144252930391</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.8183198493059</v>
+        <v>157.0144940489857</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251902</v>
+        <v>44.05422029251869</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169941</v>
+        <v>112.4615423169937</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333276</v>
+        <v>129.0689918333271</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281378</v>
+        <v>131.4895312281374</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092598</v>
+        <v>105.2737880092594</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312652</v>
+        <v>66.3216473731262</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>89.23202080014572</v>
+        <v>89.23202080014663</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>442.39092200611</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502544</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35811,7 +35811,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934876</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
         <v>344.8569461675401</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257258</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
@@ -35905,7 +35905,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>470.444344195426</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>455.8670844338408</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>205.2408699281189</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
@@ -36364,22 +36364,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36607,16 +36607,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>74.06706750163096</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,10 +36689,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36844,7 +36844,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>224.9265797896527</v>
       </c>
       <c r="K32" t="n">
-        <v>526.9910873446648</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
@@ -37081,13 +37081,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37227,7 +37227,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,7 +37239,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
@@ -37309,13 +37309,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>463.2626313632522</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>579.6600622453651</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911195</v>
       </c>
       <c r="K37" t="n">
         <v>241.5430758303653</v>
@@ -37543,25 +37543,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>463.2626313632513</v>
       </c>
       <c r="M38" t="n">
-        <v>575.1949793034116</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911201</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L40" t="n">
         <v>355.2527884562439</v>
@@ -37713,13 +37713,13 @@
         <v>380.3523624535858</v>
       </c>
       <c r="O40" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P40" t="n">
         <v>270.4524874311562</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>463.2626313632513</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>660.7793486423407</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911201</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L43" t="n">
         <v>355.2527884562439</v>
@@ -37950,13 +37950,13 @@
         <v>380.3523624535858</v>
       </c>
       <c r="O43" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P43" t="n">
         <v>270.4524874311562</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>218.1452278011656</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38023,10 +38023,10 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>578.4459517435288</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911198</v>
+        <v>81.07383289911201</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303653</v>
+        <v>241.5430758303654</v>
       </c>
       <c r="L46" t="n">
-        <v>355.2527884562438</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M46" t="n">
         <v>383.1287956795296</v>
       </c>
       <c r="N46" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O46" t="n">
-        <v>337.8485465086855</v>
+        <v>337.8485465086856</v>
       </c>
       <c r="P46" t="n">
         <v>270.4524874311562</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.8896548239394</v>
+        <v>113.8896548239395</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
